--- a/nr-mv-MS/ig/StructureDefinition-as-organization.xlsx
+++ b/nr-mv-MS/ig/StructureDefinition-as-organization.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-08T14:08:34+00:00</t>
+    <t>2025-10-08T14:26:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1668,7 +1668,7 @@
     <t>Organization.active</t>
   </si>
   <si>
-    <t>La ressource est-elle active? (active | inactive). true par défaut; false pour les structures supprimées.</t>
+    <t>La ressource est-elle active ? (active | inactive). true par défaut; false pour les structures supprimées.</t>
   </si>
   <si>
     <t>Whether the organization's record is still in active use.</t>
@@ -4014,7 +4014,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
         <v>121</v>
       </c>
@@ -4035,7 +4035,7 @@
         <v>91</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="I7" t="s" s="2">
         <v>79</v>
@@ -6886,7 +6886,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
         <v>262</v>
       </c>
@@ -6907,7 +6907,7 @@
         <v>91</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="I31" t="s" s="2">
         <v>79</v>
@@ -7006,7 +7006,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
         <v>267</v>
       </c>
@@ -7027,7 +7027,7 @@
         <v>81</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="I32" t="s" s="2">
         <v>79</v>
@@ -7126,7 +7126,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
         <v>273</v>
       </c>
@@ -7147,7 +7147,7 @@
         <v>91</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="I33" t="s" s="2">
         <v>79</v>
@@ -7246,7 +7246,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
         <v>279</v>
       </c>
@@ -7267,7 +7267,7 @@
         <v>91</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="I34" t="s" s="2">
         <v>79</v>
@@ -7366,7 +7366,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
         <v>286</v>
       </c>
@@ -7387,7 +7387,7 @@
         <v>91</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="I35" t="s" s="2">
         <v>79</v>
@@ -7486,7 +7486,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
         <v>292</v>
       </c>
@@ -7507,7 +7507,7 @@
         <v>91</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="I36" t="s" s="2">
         <v>79</v>
@@ -7848,7 +7848,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
         <v>315</v>
       </c>
@@ -7869,7 +7869,7 @@
         <v>91</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="I39" t="s" s="2">
         <v>79</v>
@@ -15676,7 +15676,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="104">
+    <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
         <v>528</v>
       </c>
@@ -15695,7 +15695,7 @@
         <v>91</v>
       </c>
       <c r="H104" t="s" s="2">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="I104" t="s" s="2">
         <v>92</v>
@@ -15819,7 +15819,7 @@
         <v>81</v>
       </c>
       <c r="H105" t="s" s="2">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="I105" t="s" s="2">
         <v>79</v>
@@ -26214,7 +26214,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="192">
+    <row r="192" hidden="true">
       <c r="A192" t="s" s="2">
         <v>688</v>
       </c>
@@ -26233,7 +26233,7 @@
         <v>91</v>
       </c>
       <c r="H192" t="s" s="2">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="I192" t="s" s="2">
         <v>79</v>
@@ -26336,7 +26336,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="193">
+    <row r="193" hidden="true">
       <c r="A193" t="s" s="2">
         <v>698</v>
       </c>
@@ -26355,7 +26355,7 @@
         <v>81</v>
       </c>
       <c r="H193" t="s" s="2">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="I193" t="s" s="2">
         <v>79</v>
@@ -26477,7 +26477,7 @@
         <v>81</v>
       </c>
       <c r="H194" t="s" s="2">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="I194" t="s" s="2">
         <v>79</v>
@@ -33840,7 +33840,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="256">
+    <row r="256" hidden="true">
       <c r="A256" t="s" s="2">
         <v>851</v>
       </c>
@@ -33859,7 +33859,7 @@
         <v>81</v>
       </c>
       <c r="H256" t="s" s="2">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="I256" t="s" s="2">
         <v>79</v>
@@ -35762,7 +35762,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="272">
+    <row r="272" hidden="true">
       <c r="A272" t="s" s="2">
         <v>930</v>
       </c>
@@ -35781,7 +35781,7 @@
         <v>81</v>
       </c>
       <c r="H272" t="s" s="2">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="I272" t="s" s="2">
         <v>79</v>
